--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK6\Python\Learn-English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF32EFA7-4100-4AFC-BDCD-2C4DDE1621DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA1D66F-5656-4945-80A8-A97DAD3C6360}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9036" xr2:uid="{DEE21FCB-A0C9-4BC3-B7F3-D51166E14A2F}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>xin chào</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>cat</t>
   </si>
@@ -43,6 +37,27 @@
   </si>
   <si>
     <t>con chó</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>con chuột</t>
+  </si>
+  <si>
+    <t>rabbit</t>
+  </si>
+  <si>
+    <t>con thỏ</t>
+  </si>
+  <si>
+    <t>alligator</t>
+  </si>
+  <si>
+    <t>cá sấu</t>
+  </si>
+  <si>
+    <t>crocodile</t>
   </si>
 </sst>
 </file>
@@ -394,36 +409,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC29C9AF-0487-4595-9D2B-5277ACE83094}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK6\Python\Learn-English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA1D66F-5656-4945-80A8-A97DAD3C6360}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D5E6A0-157C-457B-B544-6A22CC3B73D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9036" xr2:uid="{DEE21FCB-A0C9-4BC3-B7F3-D51166E14A2F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>cat</t>
   </si>
@@ -51,13 +51,22 @@
     <t>con thỏ</t>
   </si>
   <si>
-    <t>alligator</t>
-  </si>
-  <si>
     <t>cá sấu</t>
   </si>
   <si>
     <t>crocodile</t>
+  </si>
+  <si>
+    <t>cow</t>
+  </si>
+  <si>
+    <t>con bò</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>sư tử</t>
   </si>
 </sst>
 </file>
@@ -409,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC29C9AF-0487-4595-9D2B-5277ACE83094}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,10 +460,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,7 +471,15 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
